--- a/src/static/exports/ajuste_stock.xlsx
+++ b/src/static/exports/ajuste_stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>sku</t>
   </si>
@@ -25,28 +25,151 @@
     <t>stock_local</t>
   </si>
   <si>
-    <t>ajuste</t>
+    <t>diferencia</t>
   </si>
   <si>
     <t>accion</t>
   </si>
   <si>
+    <t>AUD13890</t>
+  </si>
+  <si>
+    <t>MUS17086</t>
+  </si>
+  <si>
+    <t>MUS17110</t>
+  </si>
+  <si>
+    <t>MUS17119</t>
+  </si>
+  <si>
+    <t>MUS17084</t>
+  </si>
+  <si>
+    <t>MUS16930</t>
+  </si>
+  <si>
+    <t>MUS17939</t>
+  </si>
+  <si>
+    <t>MUS17150</t>
+  </si>
+  <si>
+    <t>MUS16607</t>
+  </si>
+  <si>
+    <t>MUS16608</t>
+  </si>
+  <si>
+    <t>MUS16609</t>
+  </si>
+  <si>
+    <t>MUS16571</t>
+  </si>
+  <si>
+    <t>MUS17151</t>
+  </si>
+  <si>
+    <t>MUS16570</t>
+  </si>
+  <si>
+    <t>MUS16600</t>
+  </si>
+  <si>
+    <t>MUS16601</t>
+  </si>
+  <si>
+    <t>MUS17154</t>
+  </si>
+  <si>
+    <t>MUS17155</t>
+  </si>
+  <si>
+    <t>MUS17153</t>
+  </si>
+  <si>
+    <t>MUS17157</t>
+  </si>
+  <si>
+    <t>MUS17156</t>
+  </si>
+  <si>
+    <t>MUS16021</t>
+  </si>
+  <si>
+    <t>MUS16013</t>
+  </si>
+  <si>
+    <t>MUS16012</t>
+  </si>
+  <si>
+    <t>MUS10122</t>
+  </si>
+  <si>
+    <t>MUS10123</t>
+  </si>
+  <si>
+    <t>MUS10169</t>
+  </si>
+  <si>
     <t>AUD16026</t>
   </si>
   <si>
+    <t>ILU15820</t>
+  </si>
+  <si>
     <t>AUD13106</t>
   </si>
   <si>
+    <t>AUD13605</t>
+  </si>
+  <si>
     <t>AUD15967</t>
   </si>
   <si>
+    <t>AUD15966</t>
+  </si>
+  <si>
     <t>AUD16951</t>
   </si>
   <si>
     <t>AUD90098</t>
   </si>
   <si>
+    <t>AUD13356</t>
+  </si>
+  <si>
+    <t>AUD17696</t>
+  </si>
+  <si>
+    <t>MUS17481</t>
+  </si>
+  <si>
+    <t>MUS15734</t>
+  </si>
+  <si>
+    <t>MUS12928</t>
+  </si>
+  <si>
+    <t>MUS12776</t>
+  </si>
+  <si>
+    <t>MUS12777</t>
+  </si>
+  <si>
+    <t>MUS16780</t>
+  </si>
+  <si>
+    <t>DJS16357</t>
+  </si>
+  <si>
+    <t>AUD13893</t>
+  </si>
+  <si>
     <t>Stock aumentado en Bsale</t>
+  </si>
+  <si>
+    <t>Stock correcto, no requiere ajuste</t>
   </si>
 </sst>
 </file>
@@ -404,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +572,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +589,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +626,693 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>205</v>
+      </c>
+      <c r="C40">
+        <v>205</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
